--- a/hololive/Hololive_Indonesia_Generation_1.xlsx
+++ b/hololive/Hololive_Indonesia_Generation_1.xlsx
@@ -1038,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1145,10 +1145,6 @@
       <c r="B5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
